--- a/biology/Zoologie/Isometrus_maculatus/Isometrus_maculatus.xlsx
+++ b/biology/Zoologie/Isometrus_maculatus/Isometrus_maculatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Isometrus maculatus est une espèce de scorpions de la famille des Buthidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce est pantropicale par introduction[1]. Elle semble originaire d'Asie du Sud. Elle a été observée :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce est pantropicale par introduction. Elle semble originaire d'Asie du Sud. Elle a été observée :
 en Inde, au Sri Lanka, aux Maldives, au Pakistan, en Chine, en Birmanie, en Thaïlande, au Cambodge, au Laos, au Viêt Nam, en Malaisie, en Indonésie, aux Philippines et en Syrie ;
 au Soudan, au Éthiopie, en Somalie, au Kenya, en Tanzanie, aux Seychelles, à Madagascar, à Maurice, à la Réunion au Mozambique, en Angola, au Botswana, en Congo-Kinshasa, au Congo-Brazzaville, au Gabon, au Cameroun, à Sao Tomé-et-Principe au Nigeria, au Togo, en Sierra Leone, en Guinée, en Guinée-Bissau, au Sénégal, au Cap-Vert et à Sainte-Hélène ;
 en Espagne ;
@@ -546,9 +560,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Isometrus maculatus mesure de 30 à 75 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Isometrus maculatus mesure de 30 à 75 mm.
 Le mâle est long et mince, la femelle est ronde et moins grande.
 La gestation de ce scorpion dure environ 3 mois et peu engendrer de 20 à 30 petits. Les petits passent une à deux semaines sur le dos de leur mère qui les nourrit, quand ils atteignent environ 1 cm ils descendent de leur mère et son indépendants, se nourrissant de la même façon que leurs parents.
 Son venin n'est pas dangereux, mais provoque une douleur assez intense pendant 15 à 30 minutes.
@@ -581,7 +597,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>De Geer, 1778 : Mémoires pour servir à l'histoire des Insectes: bibliothèque du muséum d'histoire naturelle cinquième mémoire. Des scorpions et fauxscorpions. Stockholm, vol. 7, p. 325-350.</t>
         </is>
